--- a/medicine/Psychotrope/Queen's_Dubonnet/Queen's_Dubonnet.xlsx
+++ b/medicine/Psychotrope/Queen's_Dubonnet/Queen's_Dubonnet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Queen%27s_Dubonnet</t>
+          <t>Queen's_Dubonnet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un cocktail Dubonnet ou Queen's Dubonnet est un cocktail anglais à base de gin et de vermouth Dubonnet[1]. 
+Un cocktail Dubonnet ou Queen's Dubonnet est un cocktail anglais à base de gin et de vermouth Dubonnet. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Queen%27s_Dubonnet</t>
+          <t>Queen's_Dubonnet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cocktail Dubonnet est édité en 1914 dans le guide des cocktails Drinks, de Jacques Straub[2],[3], barman du Blackstone Hotel de Chicago[4], avec 1 dose de gin pour 1 dose de vermouth Dubonnet français (mélange de vin fortifié infusé d'herbes et d'épices)[5],[6] et 1 trait d'Angostura. 
-Variante des cocktails Martini et Queens (également à base de gin et de vermouth), il est en vogue au Royaume-Uni dans les années 1920, et devient célèbre dans le monde en tant qu'apéritif préféré d'Elizabeth Bowes-Lyon, reine consort du Royaume-Uni[7], puis de sa fille la reine Élisabeth II (sous le nom de Queen's Dubonnet, avec 1 dose de gin pour 2 doses de Dubonnet et 1 zeste de citron)[8],[9],[10].
-Les cocktails Martini deviennent célèbres dans le monde à partir des années 1950, en tant que cocktail préféré de l'agent secret britannique James Bond 007 de Ian Fleming, avec ses variantes Vodka martini, et Vesper, préparés « au shaker, pas à la cuillère » (shaken, not stirred (en))[11],[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cocktail Dubonnet est édité en 1914 dans le guide des cocktails Drinks, de Jacques Straub barman du Blackstone Hotel de Chicago, avec 1 dose de gin pour 1 dose de vermouth Dubonnet français (mélange de vin fortifié infusé d'herbes et d'épices), et 1 trait d'Angostura. 
+Variante des cocktails Martini et Queens (également à base de gin et de vermouth), il est en vogue au Royaume-Uni dans les années 1920, et devient célèbre dans le monde en tant qu'apéritif préféré d'Elizabeth Bowes-Lyon, reine consort du Royaume-Uni, puis de sa fille la reine Élisabeth II (sous le nom de Queen's Dubonnet, avec 1 dose de gin pour 2 doses de Dubonnet et 1 zeste de citron).
+Les cocktails Martini deviennent célèbres dans le monde à partir des années 1950, en tant que cocktail préféré de l'agent secret britannique James Bond 007 de Ian Fleming, avec ses variantes Vodka martini, et Vesper, préparés « au shaker, pas à la cuillère » (shaken, not stirred (en)),.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Queen%27s_Dubonnet</t>
+          <t>Queen's_Dubonnet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Recette du cocktail Dubonnet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1 dose de gin
 1 doses de Dubonnet
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Queen%27s_Dubonnet</t>
+          <t>Queen's_Dubonnet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,14 @@
           <t>Recette du Queen's Dubonnet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1 dose de gin
 2 doses de Dubonnet
 1 zeste de citron
-Verser le gin puis le Dubonnet dans un verre ballon (ou verre old fashioned) et ajouter deux glaçons. Servir avec un zeste de citron[13],[14],[15],[16].
+Verser le gin puis le Dubonnet dans un verre ballon (ou verre old fashioned) et ajouter deux glaçons. Servir avec un zeste de citron.
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Queen%27s_Dubonnet</t>
+          <t>Queen's_Dubonnet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,11 +629,13 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dubonnet
-Zaza, avec de l'Angostura[17]
+Zaza, avec de l'Angostura
 Gimlet
 Martini
 Vodka martini
